--- a/pack.xlsx
+++ b/pack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27428ABA-2E3F-445C-BED3-656B19EBACC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F896B-8306-40C9-8B16-E9324697B0D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/pack.xlsx
+++ b/pack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F896B-8306-40C9-8B16-E9324697B0D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27428ABA-2E3F-445C-BED3-656B19EBACC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
